--- a/experiment/nonconvex/MitsosBarton2006Ex314/compare/C-Estacionario/MitsosBarton2006Ex314_C-Estacionario.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex314/compare/C-Estacionario/MitsosBarton2006Ex314_C-Estacionario.xlsx
@@ -473,13 +473,13 @@
         <v>-8.65918460814138</v>
       </c>
       <c r="E2">
-        <v>0.0073188</v>
+        <v>0.0113991</v>
       </c>
       <c r="F2">
-        <v>0.0144606</v>
+        <v>0.0295962</v>
       </c>
       <c r="G2">
-        <v>0.008704944405594404</v>
+        <v>0.018785589393939393</v>
       </c>
       <c r="H2">
         <v>2746</v>
